--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/4.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/4.xlsx
@@ -479,13 +479,13 @@
         <v>-6.607021310112806</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.9128330848569</v>
+        <v>-11.73742241138345</v>
       </c>
       <c r="F2" t="n">
-        <v>3.333742727960983</v>
+        <v>2.387666740012174</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.05837703219449</v>
+        <v>-10.88161785152835</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.26343582458666</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.59953746120827</v>
+        <v>-12.36337850254922</v>
       </c>
       <c r="F3" t="n">
-        <v>3.449819084955727</v>
+        <v>2.492221870506199</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.70735930070497</v>
+        <v>-10.61592265765836</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.911229605609085</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.18639993608865</v>
+        <v>-12.92044289616182</v>
       </c>
       <c r="F4" t="n">
-        <v>3.349401122159688</v>
+        <v>2.352029491676996</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.27401716894668</v>
+        <v>-10.35750678416837</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.579856448660762</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.74995811191075</v>
+        <v>-13.49896557413201</v>
       </c>
       <c r="F5" t="n">
-        <v>3.470819138713856</v>
+        <v>2.540689575626269</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.00961811305802</v>
+        <v>-10.09945749515795</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.266410318403805</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.56899948538629</v>
+        <v>-14.28641522085047</v>
       </c>
       <c r="F6" t="n">
-        <v>3.470740584896805</v>
+        <v>2.527518718967492</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.537221641922864</v>
+        <v>-9.582926871143329</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.982320078258254</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.12294791092256</v>
+        <v>-14.8524609342125</v>
       </c>
       <c r="F7" t="n">
-        <v>3.495144637393782</v>
+        <v>2.588450296392885</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.212755100596366</v>
+        <v>-9.39951680063359</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.719401499203478</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.02303063898838</v>
+        <v>-15.6831937341257</v>
       </c>
       <c r="F8" t="n">
-        <v>3.844970969324703</v>
+        <v>2.895360059608628</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.613572768741932</v>
+        <v>-8.778719076787464</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.485227008410242</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.80944599378234</v>
+        <v>-16.51886233221023</v>
       </c>
       <c r="F9" t="n">
-        <v>3.877780280246069</v>
+        <v>2.940214289144381</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.991190876251958</v>
+        <v>-8.133556577352886</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.268703433196987</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.52342163695303</v>
+        <v>-17.15275235889808</v>
       </c>
       <c r="F10" t="n">
-        <v>4.143004151213756</v>
+        <v>3.227171382829333</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.311713451069216</v>
+        <v>-7.513256361014747</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.064602260772912</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.5012071823845</v>
+        <v>-18.1128240185847</v>
       </c>
       <c r="F11" t="n">
-        <v>4.27494837925267</v>
+        <v>3.372417390555442</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.007173394667826</v>
+        <v>-7.1961476938853</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.864821022906337</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.42325879461874</v>
+        <v>-19.04692054943333</v>
       </c>
       <c r="F12" t="n">
-        <v>4.639202428915174</v>
+        <v>3.664716143799819</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.365061401795371</v>
+        <v>-6.612846325377879</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.654105406537882</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.06090631222217</v>
+        <v>-19.66905368816931</v>
       </c>
       <c r="F13" t="n">
-        <v>4.722364736565817</v>
+        <v>3.666732358437444</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.626825721458963</v>
+        <v>-5.892848222899995</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.431819317115166</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.02014006452691</v>
+        <v>-20.60777180192107</v>
       </c>
       <c r="F14" t="n">
-        <v>5.033778251959114</v>
+        <v>4.079035159529082</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.84842285600414</v>
+        <v>-5.093929718892187</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.190052950875625</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.83781983850691</v>
+        <v>-21.50637509976578</v>
       </c>
       <c r="F15" t="n">
-        <v>5.139276028257743</v>
+        <v>4.140830828942029</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.47190131857894</v>
+        <v>-4.738264219893857</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.934666326939279</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.6851144015149</v>
+        <v>-22.29680979153215</v>
       </c>
       <c r="F16" t="n">
-        <v>5.368208035748165</v>
+        <v>4.31658190228936</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.051153982154389</v>
+        <v>-4.332586124040133</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.675394316418684</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.64852459842616</v>
+        <v>-23.22227849480808</v>
       </c>
       <c r="F17" t="n">
-        <v>5.700595420293905</v>
+        <v>4.672273585893373</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.916250893673244</v>
+        <v>-4.271392700557906</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.421503749547751</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.51336284724205</v>
+        <v>-24.16269860792926</v>
       </c>
       <c r="F18" t="n">
-        <v>5.502273216847439</v>
+        <v>4.507153462453524</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.557888380289518</v>
+        <v>-3.988009805548745</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.192091212379378</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.30053755560083</v>
+        <v>-24.86568980901574</v>
       </c>
       <c r="F19" t="n">
-        <v>5.744952142321673</v>
+        <v>4.752450848496104</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.433419857173228</v>
+        <v>-3.963212983966515</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.994964765381114</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.70453983669082</v>
+        <v>-25.28350446960375</v>
       </c>
       <c r="F20" t="n">
-        <v>5.947987574791162</v>
+        <v>4.975229473650915</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.079862218932416</v>
+        <v>-3.65741606649232</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.84195736675217</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.27163293428018</v>
+        <v>-25.9405809646243</v>
       </c>
       <c r="F21" t="n">
-        <v>5.901850299576918</v>
+        <v>4.901676916286098</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.195833837504425</v>
+        <v>-3.703291495649728</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.737512190828807</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.79536432485775</v>
+        <v>-26.43952862592248</v>
       </c>
       <c r="F22" t="n">
-        <v>5.995853033980512</v>
+        <v>5.049489015369184</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.07648440479925</v>
+        <v>-3.687043947823146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.679708765930533</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.1949937767986</v>
+        <v>-26.86417746859386</v>
       </c>
       <c r="F23" t="n">
-        <v>6.022116193481015</v>
+        <v>5.033123636817027</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.174244630118419</v>
+        <v>-3.797228768539112</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.668148991029924</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.66000618913102</v>
+        <v>-27.29360500180248</v>
       </c>
       <c r="F24" t="n">
-        <v>6.211692738629208</v>
+        <v>5.251791278879536</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.475550887717903</v>
+        <v>-4.071525605376115</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.690824793467467</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.71076504724839</v>
+        <v>-27.36601852882006</v>
       </c>
       <c r="F25" t="n">
-        <v>6.013239612154324</v>
+        <v>5.054437905843357</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.204867526465216</v>
+        <v>-3.785183849924724</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.739167612847195</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.08246861722784</v>
+        <v>-27.71492839955206</v>
       </c>
       <c r="F26" t="n">
-        <v>6.09383582844799</v>
+        <v>5.166115249083281</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.236930576124604</v>
+        <v>-3.82330863579983</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.798503573531127</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.02139302447119</v>
+        <v>-27.62828353934552</v>
       </c>
       <c r="F27" t="n">
-        <v>6.169509338873167</v>
+        <v>5.193268685177021</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.19055763945921</v>
+        <v>-3.737698067517784</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.852899301567698</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.29859635253905</v>
+        <v>-27.9213678307604</v>
       </c>
       <c r="F28" t="n">
-        <v>5.945316745011449</v>
+        <v>4.955669573205376</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.399890469595568</v>
+        <v>-3.87655503145713</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.889545451884275</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.42491089035603</v>
+        <v>-27.96806807499684</v>
       </c>
       <c r="F29" t="n">
-        <v>6.025729669065331</v>
+        <v>5.063000271901847</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.486875729675996</v>
+        <v>-3.938232870144502</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.893877910345719</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.09453972044791</v>
+        <v>-27.63369066041915</v>
       </c>
       <c r="F30" t="n">
-        <v>5.875115817174114</v>
+        <v>4.910920082092356</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.618060604150091</v>
+        <v>-4.103104239830358</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.859579441472681</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.9273902900676</v>
+        <v>-27.43602307211477</v>
       </c>
       <c r="F31" t="n">
-        <v>5.834555862970447</v>
+        <v>4.905814083984083</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.519567209871786</v>
+        <v>-4.011431935332593</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.782982681379087</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.6548216372057</v>
+        <v>-27.14012393558892</v>
       </c>
       <c r="F32" t="n">
-        <v>5.895775471058358</v>
+        <v>4.883347692307681</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.865007620350728</v>
+        <v>-4.266077225604165</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.666197682895598</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.52117540979736</v>
+        <v>-26.93407727346584</v>
       </c>
       <c r="F33" t="n">
-        <v>5.932852872706126</v>
+        <v>4.938047333580412</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.21370801423726</v>
+        <v>-4.616008295957819</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.517507019743033</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.05260189109199</v>
+        <v>-26.44163648667999</v>
       </c>
       <c r="F34" t="n">
-        <v>5.994360511456555</v>
+        <v>4.902410085245235</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.493621448993363</v>
+        <v>-4.822473911771839</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.346242999713318</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.75905936907764</v>
+        <v>-26.12904466403094</v>
       </c>
       <c r="F35" t="n">
-        <v>5.888181935410157</v>
+        <v>4.862190530915452</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.703150663672347</v>
+        <v>-4.995226847768414</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.16678718218258</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.51831810442398</v>
+        <v>-25.84782199899067</v>
       </c>
       <c r="F36" t="n">
-        <v>5.935392779457421</v>
+        <v>4.89698987186876</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.845503272470435</v>
+        <v>-5.050816765634384</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.9912677454478753</v>
       </c>
       <c r="E37" t="n">
-        <v>-26.0147881371312</v>
+        <v>-25.37391991302871</v>
       </c>
       <c r="F37" t="n">
-        <v>5.771712809330162</v>
+        <v>4.71699689240071</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.255266166810777</v>
+        <v>-5.395628745576923</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8305748125662213</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.64045301428057</v>
+        <v>-24.85291172144222</v>
       </c>
       <c r="F38" t="n">
-        <v>6.079067710842523</v>
+        <v>5.096752228627816</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.237735573305707</v>
+        <v>-5.367951617369513</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.6937315594704649</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.27092276657285</v>
+        <v>-24.47357533890605</v>
       </c>
       <c r="F39" t="n">
-        <v>6.101088964222306</v>
+        <v>5.051793260669329</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.475439423700085</v>
+        <v>-5.618328816914683</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.5841234425406934</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.70959028223384</v>
+        <v>-23.90855082516568</v>
       </c>
       <c r="F40" t="n">
-        <v>6.187838562851583</v>
+        <v>5.116416867496088</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.431108886278</v>
+        <v>-5.567242651226268</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.5058678696795478</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.25039085236314</v>
+        <v>-23.44626161182433</v>
       </c>
       <c r="F41" t="n">
-        <v>6.389983718727834</v>
+        <v>5.303505875104354</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.778709526725827</v>
+        <v>-5.840780134498451</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.4568633994161054</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.74666450052774</v>
+        <v>-22.89790359960147</v>
       </c>
       <c r="F42" t="n">
-        <v>6.370947510395964</v>
+        <v>5.281170406456369</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.828957785032372</v>
+        <v>-5.931745454642764</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.4345343206913742</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.10922645976978</v>
+        <v>-22.27330910793125</v>
       </c>
       <c r="F43" t="n">
-        <v>6.305721657638484</v>
+        <v>5.206360988018747</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.82044778818525</v>
+        <v>-5.860745896332083</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.4353830120777201</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.79510283768824</v>
+        <v>-22.00157836245122</v>
       </c>
       <c r="F44" t="n">
-        <v>6.485138575781499</v>
+        <v>5.320525868798597</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.863848772105572</v>
+        <v>-5.820251403642624</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.452611211520593</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14507000159654</v>
+        <v>-21.29173988697852</v>
       </c>
       <c r="F45" t="n">
-        <v>6.366181912161576</v>
+        <v>5.20850812568479</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.859763973618954</v>
+        <v>-5.822071233737624</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.483604725124473</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.60060040331768</v>
+        <v>-20.74486130497678</v>
       </c>
       <c r="F46" t="n">
-        <v>6.141936949088492</v>
+        <v>4.95569575781106</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.862133680433306</v>
+        <v>-5.833356798787192</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.523103737562122</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.89746518689994</v>
+        <v>-19.94061423371239</v>
       </c>
       <c r="F47" t="n">
-        <v>6.379797907116971</v>
+        <v>5.204763727072056</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.962263612566827</v>
+        <v>-5.953701246508338</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.5694546912166563</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.20159619855936</v>
+        <v>-19.24371095344731</v>
       </c>
       <c r="F48" t="n">
-        <v>6.263564442488127</v>
+        <v>5.073788329443429</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.146131913676028</v>
+        <v>-6.128889350833474</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.6224358999650398</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.71660493209046</v>
+        <v>-18.72865975965381</v>
       </c>
       <c r="F49" t="n">
-        <v>6.357671915314453</v>
+        <v>5.180935735900115</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.293538151371021</v>
+        <v>-6.39341932975055</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.6814277240377478</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.15969764611195</v>
+        <v>-18.1217660614256</v>
       </c>
       <c r="F50" t="n">
-        <v>6.200590465819424</v>
+        <v>5.044932893980264</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.231807943472283</v>
+        <v>-6.271556174899763</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.7500861902646412</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.67526934866525</v>
+        <v>-17.67342015061069</v>
       </c>
       <c r="F51" t="n">
-        <v>6.383699413363805</v>
+        <v>5.199003113821696</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.519746959870365</v>
+        <v>-6.549531948835291</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.8287419043034191</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.37743255131882</v>
+        <v>-17.38847927156336</v>
       </c>
       <c r="F52" t="n">
-        <v>6.227115471376761</v>
+        <v>5.071038945846666</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.551247040507557</v>
+        <v>-6.573019540133348</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.9210877360975672</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.48931618805033</v>
+        <v>-16.46481730607959</v>
       </c>
       <c r="F53" t="n">
-        <v>6.265109334223451</v>
+        <v>5.115002898789182</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.634789024940612</v>
+        <v>-6.666511674726114</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.029272083089255</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.84869671770184</v>
+        <v>-15.80222895156267</v>
       </c>
       <c r="F54" t="n">
-        <v>6.108420653813672</v>
+        <v>4.962608493711491</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.01333986930628</v>
+        <v>-7.089170487365557</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.153361161265776</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.44093694569628</v>
+        <v>-15.41490626429305</v>
       </c>
       <c r="F55" t="n">
-        <v>6.215594244876042</v>
+        <v>5.043885509752926</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.296827502738174</v>
+        <v>-7.33965242533346</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.295480934050993</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.39311076341545</v>
+        <v>-15.30884551897223</v>
       </c>
       <c r="F56" t="n">
-        <v>6.009023890639289</v>
+        <v>4.889815289911494</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.452023660623994</v>
+        <v>-7.554340007332084</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.451571344561709</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.02376380794752</v>
+        <v>-14.96684838414066</v>
       </c>
       <c r="F57" t="n">
-        <v>6.039843171528712</v>
+        <v>4.927573491307031</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.33905017940274</v>
+        <v>-7.423665732668816</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.619830753129274</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.77838786808789</v>
+        <v>-14.75823563066059</v>
       </c>
       <c r="F58" t="n">
-        <v>5.893942548660516</v>
+        <v>4.821447284472</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.546955948529351</v>
+        <v>-7.663241782369561</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.79443537354652</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.10886059306486</v>
+        <v>-14.1235469734994</v>
       </c>
       <c r="F59" t="n">
-        <v>5.870690618813611</v>
+        <v>4.849805212427179</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.828060782844051</v>
+        <v>-8.02511303291487</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.967946237445471</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.85613987131102</v>
+        <v>-13.83204685072837</v>
       </c>
       <c r="F60" t="n">
-        <v>5.971763196751736</v>
+        <v>4.962477570683073</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.91968071813045</v>
+        <v>-8.074745952987854</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.135098983503609</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.62914552464117</v>
+        <v>-13.6841169209197</v>
       </c>
       <c r="F61" t="n">
-        <v>5.891219349669437</v>
+        <v>4.92566201509214</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.996912212593791</v>
+        <v>-8.236095493209286</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.286469642296323</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.27431793302472</v>
+        <v>-13.33927875637148</v>
       </c>
       <c r="F62" t="n">
-        <v>5.804810150914046</v>
+        <v>4.872481080949048</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.112373231354974</v>
+        <v>-8.385465576330539</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.417040631887231</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.85159365887106</v>
+        <v>-12.87109800675136</v>
       </c>
       <c r="F63" t="n">
-        <v>5.710440832030883</v>
+        <v>4.743364790323946</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.158405768146483</v>
+        <v>-8.475344235338987</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.519535150015035</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.75163392667448</v>
+        <v>-12.78446623884765</v>
       </c>
       <c r="F64" t="n">
-        <v>5.569672391876645</v>
+        <v>4.685418257946466</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.003550010134546</v>
+        <v>-8.319742216065073</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.587910562915112</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.48934273154335</v>
+        <v>-12.61338911761482</v>
       </c>
       <c r="F65" t="n">
-        <v>5.529688498998014</v>
+        <v>4.590944200640571</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.113342061765263</v>
+        <v>-8.434980665677946</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.619542909425341</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.43311129083813</v>
+        <v>-12.64169467635863</v>
       </c>
       <c r="F66" t="n">
-        <v>5.531495236790172</v>
+        <v>4.619275943990067</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.192471940140654</v>
+        <v>-8.569530261982365</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.610506149849582</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.39934624180932</v>
+        <v>-12.54477235842134</v>
       </c>
       <c r="F67" t="n">
-        <v>5.502377955270173</v>
+        <v>4.534987698295033</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.143192512244397</v>
+        <v>-8.540386795856683</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.562917689903507</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.08492149676243</v>
+        <v>-12.23779713369138</v>
       </c>
       <c r="F68" t="n">
-        <v>5.235268792693278</v>
+        <v>4.27479127161857</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.143231789152923</v>
+        <v>-8.550624976678913</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.478147761404432</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.09840656868941</v>
+        <v>-12.23534887305998</v>
       </c>
       <c r="F69" t="n">
-        <v>5.198034283411409</v>
+        <v>4.209643972678141</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.049739654560156</v>
+        <v>-8.441474447887442</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.360733336773336</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.10700821165642</v>
+        <v>-12.32493950140591</v>
       </c>
       <c r="F70" t="n">
-        <v>5.161140174003425</v>
+        <v>4.131011601810735</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.16711214953623</v>
+        <v>-8.524859324686396</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.217770296454183</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.16017605349667</v>
+        <v>-12.41320780716483</v>
       </c>
       <c r="F71" t="n">
-        <v>5.110865731091197</v>
+        <v>4.097338198901815</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.049045762509545</v>
+        <v>-8.444276200695571</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.054274187699707</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.11580623916606</v>
+        <v>-12.37785858949217</v>
       </c>
       <c r="F72" t="n">
-        <v>4.862085792492718</v>
+        <v>3.905143193185276</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.061758388568862</v>
+        <v>-8.484456478116829</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.880094938079343</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.247004205943</v>
+        <v>-12.54199679021889</v>
       </c>
       <c r="F73" t="n">
-        <v>4.750094233984593</v>
+        <v>3.773146595934994</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.708253119539416</v>
+        <v>-8.135481145870621</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.701216416370158</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.54768203300608</v>
+        <v>-12.84906366106873</v>
       </c>
       <c r="F74" t="n">
-        <v>4.773136686986031</v>
+        <v>3.809333720989525</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.405663816261443</v>
+        <v>-7.863645661967862</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.52494604067293</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.80430426100675</v>
+        <v>-13.09227937095948</v>
       </c>
       <c r="F75" t="n">
-        <v>4.637631352574166</v>
+        <v>3.679379522982552</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.176679439559654</v>
+        <v>-7.572485939070716</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.358577384233564</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.93606519680588</v>
+        <v>-13.26177232354846</v>
       </c>
       <c r="F76" t="n">
-        <v>4.520743272803236</v>
+        <v>3.550472709202917</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.111689248253326</v>
+        <v>-7.5670526333914</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.205004743841061</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.28678180533004</v>
+        <v>-13.60285299718111</v>
       </c>
       <c r="F77" t="n">
-        <v>4.664392019582654</v>
+        <v>3.705407021031903</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.97018763913995</v>
+        <v>-7.422343410081802</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.071333144092567</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.51103986070596</v>
+        <v>-13.8281977136929</v>
       </c>
       <c r="F78" t="n">
-        <v>4.549965292745968</v>
+        <v>3.569718394380254</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.670059688796222</v>
+        <v>-7.132479825165986</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9586258643575</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.84148958443113</v>
+        <v>-14.16620169615774</v>
       </c>
       <c r="F79" t="n">
-        <v>4.308778889795691</v>
+        <v>3.317796303099761</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.657203047405647</v>
+        <v>-7.153872648009367</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.8696489739573356</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.32111300673492</v>
+        <v>-14.65764746792761</v>
       </c>
       <c r="F80" t="n">
-        <v>4.508541246554747</v>
+        <v>3.536280652922486</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.588416088275218</v>
+        <v>-7.065198480862356</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8055964071322904</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.86017548394015</v>
+        <v>-15.13029269281676</v>
       </c>
       <c r="F81" t="n">
-        <v>4.371752866464393</v>
+        <v>3.464299171898676</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.466762410269899</v>
+        <v>-6.967425163240346</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7638373790741707</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.55071590502415</v>
+        <v>-15.7977513839908</v>
       </c>
       <c r="F82" t="n">
-        <v>4.425850261806406</v>
+        <v>3.511536200551624</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.389242885144039</v>
+        <v>-6.874116320887365</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7455094590924866</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.30924465476523</v>
+        <v>-16.52303877681674</v>
       </c>
       <c r="F83" t="n">
-        <v>4.414459958334104</v>
+        <v>3.559270736712557</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.304548778060913</v>
+        <v>-6.85003957596143</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.7461084954486779</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.11350481833247</v>
+        <v>-17.33662066000728</v>
       </c>
       <c r="F84" t="n">
-        <v>4.459078526418706</v>
+        <v>3.574065038923707</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.011948901851177</v>
+        <v>-6.499021844471913</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7633999905461727</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.39712655814666</v>
+        <v>-18.66651059806414</v>
       </c>
       <c r="F85" t="n">
-        <v>4.337477217624754</v>
+        <v>3.516930229322415</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.71463579661842</v>
+        <v>-6.165508521881782</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7935662818360634</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.36153177007388</v>
+        <v>-19.66639595069244</v>
       </c>
       <c r="F86" t="n">
-        <v>4.270261334835332</v>
+        <v>3.464718125589611</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.324184048969624</v>
+        <v>-5.784823632152913</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.8310284898226836</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.5104598982524</v>
+        <v>-20.72031323714855</v>
       </c>
       <c r="F87" t="n">
-        <v>4.207653942646199</v>
+        <v>3.374276497558967</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.234423220686749</v>
+        <v>-5.696516049485472</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.8724281643914498</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.8159850607208</v>
+        <v>-22.09115589849431</v>
       </c>
       <c r="F88" t="n">
-        <v>4.098830721425772</v>
+        <v>3.326987099694653</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.015585378687298</v>
+        <v>-5.358132390238219</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.9113751843339675</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.38793858601832</v>
+        <v>-23.63390049615195</v>
       </c>
       <c r="F89" t="n">
-        <v>4.165522912101524</v>
+        <v>3.457229328364144</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.151116897704846</v>
+        <v>-5.492760540359688</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.9446085625388434</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.84505952309106</v>
+        <v>-25.03240719340229</v>
       </c>
       <c r="F90" t="n">
-        <v>4.078668575049513</v>
+        <v>3.434448721419541</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.094885456999633</v>
+        <v>-5.427364487665267</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.9684288103417428</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.33560510931873</v>
+        <v>-26.47602996624521</v>
       </c>
       <c r="F91" t="n">
-        <v>3.937664473444124</v>
+        <v>3.342881155344509</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.979358976724242</v>
+        <v>-5.267874054447359</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.9796345667823065</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.07753600241039</v>
+        <v>-28.18202248803632</v>
       </c>
       <c r="F92" t="n">
-        <v>3.902446178799881</v>
+        <v>3.39765935043429</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.122261462241682</v>
+        <v>-5.440901928803611</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.9769702833926598</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.13937731543962</v>
+        <v>-30.1008958540339</v>
       </c>
       <c r="F93" t="n">
-        <v>3.942639548523979</v>
+        <v>3.423346448609757</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.435468623124295</v>
+        <v>-5.750731275553059</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.9583753017921676</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.21162700922802</v>
+        <v>-32.23191689527881</v>
       </c>
       <c r="F94" t="n">
-        <v>3.887808984222831</v>
+        <v>3.36822785364609</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.256680135517684</v>
+        <v>-5.566810605232491</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.9240325624019634</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.26844087796603</v>
+        <v>-34.16314939515899</v>
       </c>
       <c r="F95" t="n">
-        <v>3.639709845372122</v>
+        <v>3.182081491842429</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.489801679917458</v>
+        <v>-5.825475232476473</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.8736920766121811</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.70129186892409</v>
+        <v>-36.63728041697701</v>
       </c>
       <c r="F96" t="n">
-        <v>3.472730614928747</v>
+        <v>3.152519072025811</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.692797835478421</v>
+        <v>-6.064121728675456</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.8083972699291013</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.062933824726</v>
+        <v>-38.94227197838278</v>
       </c>
       <c r="F97" t="n">
-        <v>3.387630646457528</v>
+        <v>3.128952926910705</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.126938597710057</v>
+        <v>-6.432120176950692</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.7303341479933084</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.28285160226623</v>
+        <v>-41.21510884400926</v>
       </c>
       <c r="F98" t="n">
-        <v>2.889651815569635</v>
+        <v>2.646475382587415</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.247597260699405</v>
+        <v>-6.506916503085473</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.6424845766092517</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.62765685661369</v>
+        <v>-43.51583231468863</v>
       </c>
       <c r="F99" t="n">
-        <v>2.799707695046977</v>
+        <v>2.60183062989713</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.538887906624968</v>
+        <v>-6.812006436206215</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5491882774287186</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.87453168570504</v>
+        <v>-45.7982658382981</v>
       </c>
       <c r="F100" t="n">
-        <v>2.613508964031949</v>
+        <v>2.351793830225845</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.638022823742518</v>
+        <v>-6.863262801831573</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4566421823628268</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.97584629180207</v>
+        <v>-47.92042339051916</v>
       </c>
       <c r="F101" t="n">
-        <v>2.355983367135198</v>
+        <v>2.037892777292621</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.571448463792341</v>
+        <v>-6.78503629235226</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3698761141405222</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.54027492631948</v>
+        <v>-50.53461586813798</v>
       </c>
       <c r="F102" t="n">
-        <v>1.998118361259457</v>
+        <v>1.860334966153132</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.768958944462621</v>
+        <v>-6.987993171004698</v>
       </c>
     </row>
   </sheetData>
